--- a/summaries/representativeSampleSummary_95.xlsx
+++ b/summaries/representativeSampleSummary_95.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -50,97 +50,106 @@
     <t xml:space="preserve">197</t>
   </si>
   <si>
-    <t xml:space="preserve">VSP0009</t>
+    <t xml:space="preserve">VSP0009-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> single experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/30/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 ETA 20200330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0010</t>
   </si>
   <si>
     <t xml:space="preserve">composite</t>
   </si>
   <si>
-    <t xml:space="preserve">ETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/30/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197 ETA 20200330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0010</t>
+    <t xml:space="preserve">4/8/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203 ETA 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209 ETA 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210 ETA 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0013-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/13/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211 ETA 20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0186-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/13/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE ETA 20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0184-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
   </si>
   <si>
     <t xml:space="preserve">04/08/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">20200408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203 ETA 20200408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209 ETA 20200408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210 ETA 20200408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/13/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211 ET 20200413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211 ETA 20200413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211 NP 20200408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0185</t>
+    <t xml:space="preserve">211-TCE NP 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0185-1m</t>
   </si>
   <si>
     <t xml:space="preserve">OP</t>
   </si>
   <si>
-    <t xml:space="preserve">211 OP 20200413</t>
+    <t xml:space="preserve">211-TCE OP 20200413</t>
   </si>
   <si>
     <t xml:space="preserve">213</t>
@@ -149,7 +158,7 @@
     <t xml:space="preserve">VSP0014</t>
   </si>
   <si>
-    <t xml:space="preserve">04/15/2020</t>
+    <t xml:space="preserve">4/15/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200415</t>
@@ -158,10 +167,10 @@
     <t xml:space="preserve">213 ETA 20200415</t>
   </si>
   <si>
-    <t xml:space="preserve">222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0180</t>
+    <t xml:space="preserve">222-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0180-1m</t>
   </si>
   <si>
     <t xml:space="preserve">04/17/2020</t>
@@ -170,13 +179,13 @@
     <t xml:space="preserve">20200417</t>
   </si>
   <si>
-    <t xml:space="preserve">222 NP 20200417</t>
+    <t xml:space="preserve">222-TCE NP 20200417</t>
   </si>
   <si>
     <t xml:space="preserve">VSP0181</t>
   </si>
   <si>
-    <t xml:space="preserve">222 OP 20200417</t>
+    <t xml:space="preserve">222-TCE OP 20200417</t>
   </si>
   <si>
     <t xml:space="preserve">VSP0182</t>
@@ -188,16 +197,16 @@
     <t xml:space="preserve">20200420</t>
   </si>
   <si>
-    <t xml:space="preserve">222 OP 20200420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223 OP 20200417</t>
+    <t xml:space="preserve">222-TCE OP 20200420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0183-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223-TCE OP 20200417</t>
   </si>
   <si>
     <t xml:space="preserve">227</t>
@@ -206,7 +215,7 @@
     <t xml:space="preserve">VSP0020</t>
   </si>
   <si>
-    <t xml:space="preserve">04/22/2020</t>
+    <t xml:space="preserve">4/22/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200422</t>
@@ -260,9 +269,6 @@
     <t xml:space="preserve">VSP0189-1</t>
   </si>
   <si>
-    <t xml:space="preserve"> single experiment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saliva</t>
   </si>
   <si>
@@ -284,7 +290,7 @@
     <t xml:space="preserve">VSP0037</t>
   </si>
   <si>
-    <t xml:space="preserve">04/29/2020</t>
+    <t xml:space="preserve">4/29/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200429</t>
@@ -296,7 +302,7 @@
     <t xml:space="preserve">VSP0033</t>
   </si>
   <si>
-    <t xml:space="preserve">04/27/2020</t>
+    <t xml:space="preserve">4/27/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200427</t>
@@ -527,13 +533,25 @@
     <t xml:space="preserve">266 NP-OP 20200522</t>
   </si>
   <si>
+    <t xml:space="preserve">266-TCE</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0262-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Unk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266 Unk 20200520</t>
+    <t xml:space="preserve">5/20/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266-TCE NP-OP 20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0263-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266-TCE NP-OP 20200522</t>
   </si>
   <si>
     <t xml:space="preserve">269</t>
@@ -623,7 +641,7 @@
     <t xml:space="preserve">VSP0256-1</t>
   </si>
   <si>
-    <t xml:space="preserve">07/17/2020</t>
+    <t xml:space="preserve">07/17/20</t>
   </si>
   <si>
     <t xml:space="preserve">20200717</t>
@@ -635,13 +653,13 @@
     <t xml:space="preserve">CCLB</t>
   </si>
   <si>
-    <t xml:space="preserve">VSP0001</t>
+    <t xml:space="preserve">VSP0001-1m</t>
   </si>
   <si>
     <t xml:space="preserve">Vero cells</t>
   </si>
   <si>
-    <t xml:space="preserve">03/28/2020</t>
+    <t xml:space="preserve">3/28/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200328</t>
@@ -1064,14 +1082,14 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
         <v>29.84</v>
@@ -1083,28 +1101,28 @@
         <v>99.4</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
         <v>29.85</v>
@@ -1116,28 +1134,28 @@
         <v>99.4</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
         <v>29.86</v>
@@ -1149,34 +1167,34 @@
         <v>99.7</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="H6" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I6" t="n">
         <v>99.8</v>
@@ -1190,10 +1208,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1203,13 +1221,13 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="H7" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I7" t="n">
         <v>99.8</v>
@@ -1218,25 +1236,25 @@
         <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G8" t="n">
         <v>29.86</v>
@@ -1248,28 +1266,28 @@
         <v>99.8</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
         <v>29.88</v>
@@ -1284,25 +1302,25 @@
         <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G10" t="n">
         <v>29.86</v>
@@ -1314,28 +1332,28 @@
         <v>99.7</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G11" t="n">
         <v>29.87</v>
@@ -1347,28 +1365,28 @@
         <v>99.7</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G12" t="n">
         <v>29.34</v>
@@ -1380,28 +1398,28 @@
         <v>99.9</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G13" t="n">
         <v>29.88</v>
@@ -1413,28 +1431,28 @@
         <v>99.9</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G14" t="n">
         <v>29.96</v>
@@ -1446,28 +1464,28 @@
         <v>99.9</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G15" t="n">
         <v>29.91</v>
@@ -1479,28 +1497,28 @@
         <v>99.8</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G16" t="n">
         <v>29.82</v>
@@ -1512,28 +1530,28 @@
         <v>99.8</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G17" t="n">
         <v>18.98</v>
@@ -1545,28 +1563,28 @@
         <v>98.5</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G18" t="n">
         <v>29.9</v>
@@ -1578,28 +1596,28 @@
         <v>99.8</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G19" t="n">
         <v>29.68</v>
@@ -1611,30 +1629,30 @@
         <v>98.8</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
         <v>85100</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G20" t="n">
         <v>29.82</v>
@@ -1646,30 +1664,30 @@
         <v>99.8</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
         <v>176000</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G21" t="n">
         <v>29.87</v>
@@ -1681,28 +1699,28 @@
         <v>99.8</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G22" t="n">
         <v>24.92</v>
@@ -1714,28 +1732,28 @@
         <v>98.9</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G23" t="n">
         <v>29.97</v>
@@ -1747,28 +1765,28 @@
         <v>99.8</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G24" t="n">
         <v>29.92</v>
@@ -1780,28 +1798,28 @@
         <v>99.5</v>
       </c>
       <c r="J24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G25" t="n">
         <v>29.89</v>
@@ -1813,28 +1831,28 @@
         <v>99.8</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G26" t="n">
         <v>30.06</v>
@@ -1846,28 +1864,28 @@
         <v>99.8</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G27" t="n">
         <v>27.48</v>
@@ -1879,30 +1897,30 @@
         <v>99.8</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
         <v>364000</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G28" t="n">
         <v>29.45</v>
@@ -1914,21 +1932,21 @@
         <v>99.8</v>
       </c>
       <c r="J28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D29" t="n">
         <v>1420000</v>
@@ -1937,7 +1955,7 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G29" t="n">
         <v>29.31</v>
@@ -1949,28 +1967,28 @@
         <v>99.7</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G30" t="n">
         <v>29.88</v>
@@ -1982,30 +2000,30 @@
         <v>99.8</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D31" t="n">
         <v>222000</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G31" t="n">
         <v>29.89</v>
@@ -2017,30 +2035,30 @@
         <v>99.8</v>
       </c>
       <c r="J31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
         <v>667</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G32" t="n">
         <v>29.72</v>
@@ -2052,28 +2070,28 @@
         <v>99.2</v>
       </c>
       <c r="J32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G33" t="n">
         <v>21.42</v>
@@ -2085,21 +2103,21 @@
         <v>99</v>
       </c>
       <c r="J33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
         <v>255500</v>
@@ -2108,7 +2126,7 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G34" t="n">
         <v>29.82</v>
@@ -2120,28 +2138,28 @@
         <v>99.8</v>
       </c>
       <c r="J34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G35" t="n">
         <v>29.94</v>
@@ -2153,28 +2171,28 @@
         <v>99.8</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G36" t="n">
         <v>30</v>
@@ -2186,21 +2204,21 @@
         <v>99.7</v>
       </c>
       <c r="J36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D37" t="n">
         <v>2760000</v>
@@ -2209,7 +2227,7 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G37" t="n">
         <v>29.82</v>
@@ -2221,21 +2239,21 @@
         <v>99.7</v>
       </c>
       <c r="J37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
         <v>123000</v>
@@ -2244,7 +2262,7 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G38" t="n">
         <v>29.89</v>
@@ -2256,28 +2274,28 @@
         <v>99.8</v>
       </c>
       <c r="J38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G39" t="n">
         <v>29.99</v>
@@ -2289,30 +2307,30 @@
         <v>99.9</v>
       </c>
       <c r="J39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D40" t="n">
         <v>51800</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G40" t="n">
         <v>29.93</v>
@@ -2324,28 +2342,28 @@
         <v>99.8</v>
       </c>
       <c r="J40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G41" t="n">
         <v>7.26</v>
@@ -2357,28 +2375,28 @@
         <v>95.1</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G42" t="n">
         <v>29.82</v>
@@ -2390,28 +2408,28 @@
         <v>99.7</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G43" t="n">
         <v>29.81</v>
@@ -2423,30 +2441,30 @@
         <v>99.6</v>
       </c>
       <c r="J43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D44" t="n">
         <v>172000</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G44" t="n">
         <v>29.85</v>
@@ -2458,28 +2476,28 @@
         <v>99.8</v>
       </c>
       <c r="J44" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K44" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G45" t="n">
         <v>22.33</v>
@@ -2491,28 +2509,28 @@
         <v>99</v>
       </c>
       <c r="J45" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G46" t="n">
         <v>29.75</v>
@@ -2524,28 +2542,28 @@
         <v>99.8</v>
       </c>
       <c r="J46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G47" t="n">
         <v>29.98</v>
@@ -2557,68 +2575,66 @@
         <v>99.8</v>
       </c>
       <c r="J47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="n">
-        <v>166000</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D48"/>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G48" t="n">
-        <v>29.82</v>
+        <v>29.86</v>
       </c>
       <c r="H48" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I48" t="n">
-        <v>99.8</v>
+        <v>99.6</v>
       </c>
       <c r="J48" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D49" t="n">
-        <v>16300</v>
+        <v>166000</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G49" t="n">
-        <v>29.83</v>
+        <v>29.82</v>
       </c>
       <c r="H49" t="n">
         <v>99.8</v>
@@ -2627,202 +2643,204 @@
         <v>99.8</v>
       </c>
       <c r="J49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K49" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50"/>
+        <v>13</v>
+      </c>
+      <c r="D50" t="n">
+        <v>16300</v>
+      </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G50" t="n">
-        <v>29.84</v>
+        <v>29.83</v>
       </c>
       <c r="H50" t="n">
         <v>99.8</v>
       </c>
       <c r="I50" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="J50" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="K50" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1530000</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D51"/>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="G51" t="n">
-        <v>25.63</v>
+        <v>29.84</v>
       </c>
       <c r="H51" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="I51" t="n">
-        <v>98.7</v>
+        <v>99.5</v>
       </c>
       <c r="J51" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="K51" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
-        <v>14500</v>
+        <v>1530000</v>
       </c>
       <c r="E52" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="G52" t="n">
-        <v>29.41</v>
+        <v>25.63</v>
       </c>
       <c r="H52" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="I52" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="J52" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D53" t="n">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="E53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="G53" t="n">
-        <v>12.5</v>
+        <v>29.41</v>
       </c>
       <c r="H53" t="n">
-        <v>99.1</v>
+        <v>99.8</v>
       </c>
       <c r="I53" t="n">
-        <v>97.7</v>
+        <v>99.8</v>
       </c>
       <c r="J53" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="K53" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
-      <c r="D54"/>
+      <c r="D54" t="n">
+        <v>14300</v>
+      </c>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="G54" t="n">
-        <v>29.8</v>
+        <v>12.5</v>
       </c>
       <c r="H54" t="n">
-        <v>99.8</v>
+        <v>99.1</v>
       </c>
       <c r="I54" t="n">
-        <v>99.8</v>
+        <v>97.7</v>
       </c>
       <c r="J54" t="s">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F55" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G55" t="n">
-        <v>24.18</v>
+        <v>29.8</v>
       </c>
       <c r="H55" t="n">
         <v>99.8</v>
@@ -2831,72 +2849,72 @@
         <v>99.8</v>
       </c>
       <c r="J55" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" t="n">
-        <v>313.5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D56"/>
       <c r="E56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G56" t="n">
-        <v>22.6</v>
+        <v>24.18</v>
       </c>
       <c r="H56" t="n">
-        <v>99.1</v>
+        <v>99.8</v>
       </c>
       <c r="I56" t="n">
-        <v>99.1</v>
+        <v>99.8</v>
       </c>
       <c r="J56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
-      <c r="D57"/>
+      <c r="D57" t="n">
+        <v>313.5</v>
+      </c>
       <c r="E57" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
         <v>209</v>
       </c>
       <c r="G57" t="n">
-        <v>27.21</v>
+        <v>22.6</v>
       </c>
       <c r="H57" t="n">
-        <v>99.9</v>
+        <v>99.1</v>
       </c>
       <c r="I57" t="n">
-        <v>99.8</v>
+        <v>99.1</v>
       </c>
       <c r="J57" t="s">
         <v>210</v>
@@ -2917,25 +2935,58 @@
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F58" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G58" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="H58" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I58" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J58" t="s">
+        <v>216</v>
+      </c>
+      <c r="K58" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" t="s">
+        <v>215</v>
+      </c>
+      <c r="G59" t="n">
         <v>30.02</v>
       </c>
-      <c r="H58" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I58" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J58" t="s">
-        <v>210</v>
-      </c>
-      <c r="K58" t="s">
-        <v>214</v>
+      <c r="H59" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J59" t="s">
+        <v>216</v>
+      </c>
+      <c r="K59" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/representativeSampleSummary_95.xlsx
+++ b/summaries/representativeSampleSummary_95.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">ETA</t>
   </si>
   <si>
-    <t xml:space="preserve">3/30/2020</t>
+    <t xml:space="preserve">2020-03-30</t>
   </si>
   <si>
     <t xml:space="preserve">20200330</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">composite</t>
   </si>
   <si>
-    <t xml:space="preserve">4/8/2020</t>
+    <t xml:space="preserve">2020-04-08</t>
   </si>
   <si>
     <t xml:space="preserve">20200408</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">VSP0013-1m</t>
   </si>
   <si>
-    <t xml:space="preserve">4/13/2020</t>
+    <t xml:space="preserve">2020-04-13</t>
   </si>
   <si>
     <t xml:space="preserve">20200413</t>
@@ -125,9 +125,6 @@
     <t xml:space="preserve">VSP0186-1m</t>
   </si>
   <si>
-    <t xml:space="preserve">04/13/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">211-TCE ETA 20200413</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t xml:space="preserve">NP</t>
   </si>
   <si>
-    <t xml:space="preserve">04/08/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">211-TCE NP 20200408</t>
   </si>
   <si>
@@ -158,7 +152,7 @@
     <t xml:space="preserve">VSP0014</t>
   </si>
   <si>
-    <t xml:space="preserve">4/15/2020</t>
+    <t xml:space="preserve">2020-04-15</t>
   </si>
   <si>
     <t xml:space="preserve">20200415</t>
@@ -173,7 +167,7 @@
     <t xml:space="preserve">VSP0180-1m</t>
   </si>
   <si>
-    <t xml:space="preserve">04/17/2020</t>
+    <t xml:space="preserve">2020-04-17</t>
   </si>
   <si>
     <t xml:space="preserve">20200417</t>
@@ -191,7 +185,7 @@
     <t xml:space="preserve">VSP0182</t>
   </si>
   <si>
-    <t xml:space="preserve">04/20/2020</t>
+    <t xml:space="preserve">2020-04-20</t>
   </si>
   <si>
     <t xml:space="preserve">20200420</t>
@@ -215,7 +209,7 @@
     <t xml:space="preserve">VSP0020</t>
   </si>
   <si>
-    <t xml:space="preserve">4/22/2020</t>
+    <t xml:space="preserve">2020-04-22</t>
   </si>
   <si>
     <t xml:space="preserve">20200422</t>
@@ -233,54 +227,48 @@
     <t xml:space="preserve">228 NP 20200422</t>
   </si>
   <si>
-    <t xml:space="preserve">VSP0069</t>
+    <t xml:space="preserve">VSP0188</t>
   </si>
   <si>
     <t xml:space="preserve">NP-OP</t>
   </si>
   <si>
-    <t xml:space="preserve">04/24/2020</t>
+    <t xml:space="preserve">2020-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 NP-OP 20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 OP 20200422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0189-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saliva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 Saliva 20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0080-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-24</t>
   </si>
   <si>
     <t xml:space="preserve">20200424</t>
   </si>
   <si>
-    <t xml:space="preserve">228 NP-OP 20200424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/29/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228 NP-OP 20200529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228 OP 20200422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0189-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saliva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228 Saliva 20200529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0080-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">235 NP-OP 20200424</t>
   </si>
   <si>
@@ -290,7 +278,7 @@
     <t xml:space="preserve">VSP0037</t>
   </si>
   <si>
-    <t xml:space="preserve">4/29/2020</t>
+    <t xml:space="preserve">2020-04-29</t>
   </si>
   <si>
     <t xml:space="preserve">20200429</t>
@@ -302,7 +290,7 @@
     <t xml:space="preserve">VSP0033</t>
   </si>
   <si>
-    <t xml:space="preserve">4/27/2020</t>
+    <t xml:space="preserve">2020-04-27</t>
   </si>
   <si>
     <t xml:space="preserve">20200427</t>
@@ -347,7 +335,7 @@
     <t xml:space="preserve">VSP0046-1</t>
   </si>
   <si>
-    <t xml:space="preserve">05/01/2020</t>
+    <t xml:space="preserve">2020-05-01</t>
   </si>
   <si>
     <t xml:space="preserve">20200501</t>
@@ -362,7 +350,7 @@
     <t xml:space="preserve">VSP0052-1</t>
   </si>
   <si>
-    <t xml:space="preserve">05/04/2020</t>
+    <t xml:space="preserve">2020-05-04</t>
   </si>
   <si>
     <t xml:space="preserve">20200504</t>
@@ -404,7 +392,7 @@
     <t xml:space="preserve">VSP0088-1</t>
   </si>
   <si>
-    <t xml:space="preserve">05/06/2020</t>
+    <t xml:space="preserve">2020-05-06</t>
   </si>
   <si>
     <t xml:space="preserve">20200506</t>
@@ -431,7 +419,7 @@
     <t xml:space="preserve">VSP0100-1</t>
   </si>
   <si>
-    <t xml:space="preserve">05/08/2020</t>
+    <t xml:space="preserve">2020-05-08</t>
   </si>
   <si>
     <t xml:space="preserve">20200508</t>
@@ -443,7 +431,7 @@
     <t xml:space="preserve">VSP0123-1</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2020</t>
+    <t xml:space="preserve">2020-05-11</t>
   </si>
   <si>
     <t xml:space="preserve">20200511</t>
@@ -473,7 +461,7 @@
     <t xml:space="preserve">VSP0140-1</t>
   </si>
   <si>
-    <t xml:space="preserve">05/15/2020</t>
+    <t xml:space="preserve">2020-05-15</t>
   </si>
   <si>
     <t xml:space="preserve">20200515</t>
@@ -512,7 +500,7 @@
     <t xml:space="preserve">VSP0155</t>
   </si>
   <si>
-    <t xml:space="preserve">05/20/2020</t>
+    <t xml:space="preserve">2020-05-20</t>
   </si>
   <si>
     <t xml:space="preserve">20200520</t>
@@ -524,7 +512,7 @@
     <t xml:space="preserve">VSP0163</t>
   </si>
   <si>
-    <t xml:space="preserve">05/22/2020</t>
+    <t xml:space="preserve">2020-05-22</t>
   </si>
   <si>
     <t xml:space="preserve">20200522</t>
@@ -533,34 +521,13 @@
     <t xml:space="preserve">266 NP-OP 20200522</t>
   </si>
   <si>
-    <t xml:space="preserve">266-TCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0262-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266-TCE NP-OP 20200520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0263-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/22/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266-TCE NP-OP 20200522</t>
-  </si>
-  <si>
     <t xml:space="preserve">269</t>
   </si>
   <si>
     <t xml:space="preserve">VSP0176-1</t>
   </si>
   <si>
-    <t xml:space="preserve">05/27/2020</t>
+    <t xml:space="preserve">2020-05-27</t>
   </si>
   <si>
     <t xml:space="preserve">20200527</t>
@@ -572,7 +539,7 @@
     <t xml:space="preserve">VSP0202-1</t>
   </si>
   <si>
-    <t xml:space="preserve">06/12/2020</t>
+    <t xml:space="preserve">2020-06-12</t>
   </si>
   <si>
     <t xml:space="preserve">20200612</t>
@@ -614,7 +581,7 @@
     <t xml:space="preserve">VSP0230</t>
   </si>
   <si>
-    <t xml:space="preserve">06/29/2020</t>
+    <t xml:space="preserve">2020-06-29</t>
   </si>
   <si>
     <t xml:space="preserve">20200629</t>
@@ -626,7 +593,7 @@
     <t xml:space="preserve">VSP0233</t>
   </si>
   <si>
-    <t xml:space="preserve">07/01/2020</t>
+    <t xml:space="preserve">2020-07-01</t>
   </si>
   <si>
     <t xml:space="preserve">20200701</t>
@@ -641,7 +608,7 @@
     <t xml:space="preserve">VSP0256-1</t>
   </si>
   <si>
-    <t xml:space="preserve">07/17/20</t>
+    <t xml:space="preserve">2020-07-17</t>
   </si>
   <si>
     <t xml:space="preserve">20200717</t>
@@ -659,7 +626,7 @@
     <t xml:space="preserve">Vero cells</t>
   </si>
   <si>
-    <t xml:space="preserve">3/28/2020</t>
+    <t xml:space="preserve">2020-03-28</t>
   </si>
   <si>
     <t xml:space="preserve">20200328</t>
@@ -1221,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G7" t="n">
         <v>29.8</v>
@@ -1236,7 +1203,7 @@
         <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -1244,17 +1211,17 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
         <v>29.86</v>
@@ -1269,7 +1236,7 @@
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1277,17 +1244,17 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
         <v>29.88</v>
@@ -1302,15 +1269,15 @@
         <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1320,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
         <v>29.86</v>
@@ -1332,28 +1299,28 @@
         <v>99.7</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" t="n">
         <v>29.87</v>
@@ -1365,28 +1332,28 @@
         <v>99.7</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" t="n">
         <v>29.34</v>
@@ -1398,28 +1365,28 @@
         <v>99.9</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" t="n">
         <v>29.88</v>
@@ -1431,28 +1398,28 @@
         <v>99.9</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" t="n">
         <v>29.96</v>
@@ -1464,28 +1431,28 @@
         <v>99.9</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" t="n">
         <v>29.91</v>
@@ -1497,28 +1464,28 @@
         <v>99.8</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" t="n">
         <v>29.82</v>
@@ -1530,184 +1497,184 @@
         <v>99.8</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J17" t="s">
         <v>74</v>
       </c>
-      <c r="F17" t="s">
+      <c r="K17" t="s">
         <v>75</v>
-      </c>
-      <c r="G17" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="H17" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G18" t="n">
-        <v>29.9</v>
+        <v>29.68</v>
       </c>
       <c r="H18" t="n">
         <v>99.8</v>
       </c>
       <c r="I18" t="n">
-        <v>99.8</v>
+        <v>98.8</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19"/>
+        <v>13</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85100</v>
+      </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G19" t="n">
-        <v>29.68</v>
+        <v>29.82</v>
       </c>
       <c r="H19" t="n">
         <v>99.8</v>
       </c>
       <c r="I19" t="n">
-        <v>98.8</v>
+        <v>99.8</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>85100</v>
+        <v>176000</v>
       </c>
       <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="H20" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="s">
         <v>85</v>
-      </c>
-      <c r="F20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" t="n">
-        <v>29.82</v>
-      </c>
-      <c r="H20" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J20" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
         <v>88</v>
       </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="n">
-        <v>176000</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
       <c r="G21" t="n">
-        <v>29.87</v>
+        <v>24.92</v>
       </c>
       <c r="H21" t="n">
-        <v>99.9</v>
+        <v>99.3</v>
       </c>
       <c r="I21" t="n">
-        <v>99.8</v>
+        <v>98.9</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>91</v>
@@ -1717,19 +1684,19 @@
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
         <v>92</v>
       </c>
       <c r="G22" t="n">
-        <v>24.92</v>
+        <v>29.97</v>
       </c>
       <c r="H22" t="n">
-        <v>99.3</v>
+        <v>99.9</v>
       </c>
       <c r="I22" t="n">
-        <v>98.9</v>
+        <v>99.8</v>
       </c>
       <c r="J22" t="s">
         <v>93</v>
@@ -1740,7 +1707,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
         <v>95</v>
@@ -1750,248 +1717,250 @@
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G23" t="n">
-        <v>29.97</v>
+        <v>29.92</v>
       </c>
       <c r="H23" t="n">
         <v>99.9</v>
       </c>
       <c r="I23" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="J23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G24" t="n">
-        <v>29.92</v>
+        <v>29.89</v>
       </c>
       <c r="H24" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I24" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="J24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
         <v>101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>102</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G25" t="n">
-        <v>29.89</v>
+        <v>30.06</v>
       </c>
       <c r="H25" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I25" t="n">
         <v>99.8</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G26" t="n">
-        <v>30.06</v>
+        <v>27.48</v>
       </c>
       <c r="H26" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I26" t="n">
         <v>99.8</v>
       </c>
       <c r="J26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="n">
+        <v>364000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
         <v>107</v>
       </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" t="s">
-        <v>92</v>
-      </c>
       <c r="G27" t="n">
-        <v>27.48</v>
+        <v>29.45</v>
       </c>
       <c r="H27" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I27" t="n">
         <v>99.8</v>
       </c>
       <c r="J27" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="n">
-        <v>364000</v>
+        <v>1420000</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G28" t="n">
-        <v>29.45</v>
+        <v>29.31</v>
       </c>
       <c r="H28" t="n">
         <v>99.9</v>
       </c>
       <c r="I28" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
         <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1420000</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D29"/>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="G29" t="n">
-        <v>29.31</v>
+        <v>29.88</v>
       </c>
       <c r="H29" t="n">
         <v>99.9</v>
       </c>
       <c r="I29" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30"/>
+        <v>13</v>
+      </c>
+      <c r="D30" t="n">
+        <v>222000</v>
+      </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G30" t="n">
-        <v>29.88</v>
+        <v>29.89</v>
       </c>
       <c r="H30" t="n">
         <v>99.9</v>
@@ -2000,219 +1969,219 @@
         <v>99.8</v>
       </c>
       <c r="J30" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="n">
-        <v>222000</v>
+        <v>667</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="G31" t="n">
-        <v>29.89</v>
+        <v>29.72</v>
       </c>
       <c r="H31" t="n">
-        <v>99.9</v>
+        <v>99.6</v>
       </c>
       <c r="I31" t="n">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="J31" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="H32" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>99</v>
+      </c>
+      <c r="J32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" t="s">
         <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="n">
-        <v>667</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" t="n">
-        <v>29.72</v>
-      </c>
-      <c r="H32" t="n">
-        <v>99.6</v>
-      </c>
-      <c r="I32" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>93</v>
-      </c>
-      <c r="K32" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
         <v>125</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>255500</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
         <v>126</v>
       </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" t="s">
-        <v>111</v>
-      </c>
       <c r="G33" t="n">
-        <v>21.42</v>
+        <v>29.82</v>
       </c>
       <c r="H33" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="I33" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
         <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="n">
-        <v>255500</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D34"/>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="H34" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I34" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" t="s">
         <v>130</v>
-      </c>
-      <c r="G34" t="n">
-        <v>29.82</v>
-      </c>
-      <c r="H34" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I34" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J34" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G35" t="n">
-        <v>29.94</v>
+        <v>30</v>
       </c>
       <c r="H35" t="n">
         <v>99.9</v>
       </c>
       <c r="I35" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J35" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2760000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
         <v>135</v>
       </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" t="s">
-        <v>130</v>
-      </c>
       <c r="G36" t="n">
-        <v>30</v>
+        <v>29.82</v>
       </c>
       <c r="H36" t="n">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="I36" t="n">
         <v>99.7</v>
       </c>
       <c r="J36" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
         <v>138</v>
@@ -2221,7 +2190,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="n">
-        <v>2760000</v>
+        <v>123000</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -2230,13 +2199,13 @@
         <v>139</v>
       </c>
       <c r="G37" t="n">
-        <v>29.82</v>
+        <v>29.89</v>
       </c>
       <c r="H37" t="n">
-        <v>99.7</v>
+        <v>99.9</v>
       </c>
       <c r="I37" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J37" t="s">
         <v>140</v>
@@ -2247,244 +2216,242 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
         <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="n">
-        <v>123000</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D38"/>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G38" t="n">
-        <v>29.89</v>
+        <v>29.99</v>
       </c>
       <c r="H38" t="n">
         <v>99.9</v>
       </c>
       <c r="I38" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="J38" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="n">
+        <v>51800</v>
+      </c>
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="H39" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39" t="s">
         <v>146</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="H39" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="I39" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="J39" t="s">
-        <v>140</v>
-      </c>
-      <c r="K39" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s">
         <v>148</v>
-      </c>
-      <c r="B40" t="s">
-        <v>149</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
-      <c r="D40" t="n">
-        <v>51800</v>
-      </c>
+      <c r="D40"/>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G40" t="n">
-        <v>29.93</v>
+        <v>7.26</v>
       </c>
       <c r="H40" t="n">
-        <v>99.8</v>
+        <v>98.1</v>
       </c>
       <c r="I40" t="n">
-        <v>99.8</v>
+        <v>95.1</v>
       </c>
       <c r="J40" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G41" t="n">
-        <v>7.26</v>
+        <v>29.82</v>
       </c>
       <c r="H41" t="n">
-        <v>98.1</v>
+        <v>99.8</v>
       </c>
       <c r="I41" t="n">
-        <v>95.1</v>
+        <v>99.7</v>
       </c>
       <c r="J41" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" t="s">
         <v>154</v>
-      </c>
-      <c r="K41" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
         <v>156</v>
-      </c>
-      <c r="B42" t="s">
-        <v>157</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G42" t="n">
-        <v>29.82</v>
+        <v>29.81</v>
       </c>
       <c r="H42" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="I42" t="n">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="J42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" t="n">
+        <v>172000</v>
+      </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G43" t="n">
-        <v>29.81</v>
+        <v>29.85</v>
       </c>
       <c r="H43" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="I43" t="n">
-        <v>99.6</v>
+        <v>99.8</v>
       </c>
       <c r="J43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s">
         <v>162</v>
       </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="n">
-        <v>172000</v>
-      </c>
-      <c r="E44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" t="s">
-        <v>153</v>
-      </c>
       <c r="G44" t="n">
-        <v>29.85</v>
+        <v>22.33</v>
       </c>
       <c r="H44" t="n">
         <v>99.8</v>
       </c>
       <c r="I44" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="J44" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s">
         <v>165</v>
@@ -2494,19 +2461,19 @@
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
         <v>166</v>
       </c>
       <c r="G45" t="n">
-        <v>22.33</v>
+        <v>29.75</v>
       </c>
       <c r="H45" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I45" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="J45" t="s">
         <v>167</v>
@@ -2517,40 +2484,42 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46"/>
+        <v>13</v>
+      </c>
+      <c r="D46" t="n">
+        <v>166000</v>
+      </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G46" t="n">
-        <v>29.75</v>
+        <v>29.82</v>
       </c>
       <c r="H46" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I46" t="n">
         <v>99.8</v>
       </c>
       <c r="J46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
         <v>174</v>
@@ -2558,57 +2527,59 @@
       <c r="C47" t="s">
         <v>13</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" t="n">
+        <v>16300</v>
+      </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
         <v>175</v>
       </c>
       <c r="G47" t="n">
-        <v>29.98</v>
+        <v>29.83</v>
       </c>
       <c r="H47" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I47" t="n">
         <v>99.8</v>
       </c>
       <c r="J47" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G48" t="n">
-        <v>29.86</v>
+        <v>29.84</v>
       </c>
       <c r="H48" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I48" t="n">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="J48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K48" t="s">
         <v>179</v>
@@ -2625,28 +2596,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="n">
-        <v>166000</v>
+        <v>1530000</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="H49" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" t="s">
         <v>182</v>
-      </c>
-      <c r="G49" t="n">
-        <v>29.82</v>
-      </c>
-      <c r="H49" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I49" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J49" t="s">
-        <v>183</v>
-      </c>
-      <c r="K49" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="50">
@@ -2654,22 +2625,22 @@
         <v>180</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
       </c>
       <c r="D50" t="n">
-        <v>16300</v>
+        <v>14500</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G50" t="n">
-        <v>29.83</v>
+        <v>29.41</v>
       </c>
       <c r="H50" t="n">
         <v>99.8</v>
@@ -2678,10 +2649,10 @@
         <v>99.8</v>
       </c>
       <c r="J50" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="K50" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51">
@@ -2689,99 +2660,97 @@
         <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
-      <c r="D51"/>
+      <c r="D51" t="n">
+        <v>14300</v>
+      </c>
       <c r="E51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="J51" t="s">
         <v>74</v>
       </c>
-      <c r="F51" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" t="n">
-        <v>29.84</v>
-      </c>
-      <c r="H51" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I51" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="J51" t="s">
-        <v>171</v>
-      </c>
       <c r="K51" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H52" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J52" t="s">
+        <v>190</v>
+      </c>
+      <c r="K52" t="s">
         <v>191</v>
-      </c>
-      <c r="B52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1530000</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" t="n">
-        <v>25.63</v>
-      </c>
-      <c r="H52" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="I52" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="J52" t="s">
-        <v>80</v>
-      </c>
-      <c r="K52" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="H53" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J53" t="s">
         <v>194</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="n">
-        <v>14500</v>
-      </c>
-      <c r="E53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" t="s">
-        <v>182</v>
-      </c>
-      <c r="G53" t="n">
-        <v>29.41</v>
-      </c>
-      <c r="H53" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I53" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J53" t="s">
-        <v>183</v>
       </c>
       <c r="K53" t="s">
         <v>195</v>
@@ -2789,91 +2758,91 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>14300</v>
+        <v>313.5</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="G54" t="n">
-        <v>12.5</v>
+        <v>22.6</v>
       </c>
       <c r="H54" t="n">
         <v>99.1</v>
       </c>
       <c r="I54" t="n">
-        <v>97.7</v>
+        <v>99.1</v>
       </c>
       <c r="J54" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="K54" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="F55" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G55" t="n">
-        <v>29.8</v>
+        <v>27.21</v>
       </c>
       <c r="H55" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I55" t="n">
         <v>99.8</v>
       </c>
       <c r="J55" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K55" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="F56" t="s">
         <v>204</v>
       </c>
       <c r="G56" t="n">
-        <v>24.18</v>
+        <v>30.02</v>
       </c>
       <c r="H56" t="n">
         <v>99.8</v>
@@ -2885,108 +2854,7 @@
         <v>205</v>
       </c>
       <c r="K56" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>207</v>
-      </c>
-      <c r="B57" t="s">
-        <v>208</v>
-      </c>
-      <c r="C57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" t="n">
-        <v>313.5</v>
-      </c>
-      <c r="E57" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" t="s">
         <v>209</v>
-      </c>
-      <c r="G57" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="H57" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>210</v>
-      </c>
-      <c r="K57" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B58" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58"/>
-      <c r="E58" t="s">
-        <v>214</v>
-      </c>
-      <c r="F58" t="s">
-        <v>215</v>
-      </c>
-      <c r="G58" t="n">
-        <v>27.21</v>
-      </c>
-      <c r="H58" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="I58" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J58" t="s">
-        <v>216</v>
-      </c>
-      <c r="K58" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>218</v>
-      </c>
-      <c r="B59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59" t="s">
-        <v>214</v>
-      </c>
-      <c r="F59" t="s">
-        <v>215</v>
-      </c>
-      <c r="G59" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="H59" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I59" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J59" t="s">
-        <v>216</v>
-      </c>
-      <c r="K59" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/representativeSampleSummary_95.xlsx
+++ b/summaries/representativeSampleSummary_95.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -617,13 +617,10 @@
     <t xml:space="preserve">307 NP-OP 20200717</t>
   </si>
   <si>
-    <t xml:space="preserve">CCLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0001-1m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vero cells</t>
+    <t xml:space="preserve">USA-WA1-2020-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0002</t>
   </si>
   <si>
     <t xml:space="preserve">2020-03-28</t>
@@ -632,16 +629,7 @@
     <t xml:space="preserve">20200328</t>
   </si>
   <si>
-    <t xml:space="preserve">CCLB Vero cells 20200328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E6 Vero cells 20200328</t>
+    <t xml:space="preserve">USA-WA1-2020-TCE NP-OP 20200328</t>
   </si>
 </sst>
 </file>
@@ -2799,62 +2787,29 @@
         <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s">
         <v>203</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="H55" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I55" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J55" t="s">
         <v>204</v>
       </c>
-      <c r="G55" t="n">
-        <v>27.21</v>
-      </c>
-      <c r="H55" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="I55" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>205</v>
-      </c>
-      <c r="K55" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>207</v>
-      </c>
-      <c r="B56" t="s">
-        <v>208</v>
-      </c>
-      <c r="C56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56" t="s">
-        <v>203</v>
-      </c>
-      <c r="F56" t="s">
-        <v>204</v>
-      </c>
-      <c r="G56" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="H56" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I56" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J56" t="s">
-        <v>205</v>
-      </c>
-      <c r="K56" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/representativeSampleSummary_95.xlsx
+++ b/summaries/representativeSampleSummary_95.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -47,286 +47,262 @@
     <t xml:space="preserve">sampleName</t>
   </si>
   <si>
-    <t xml:space="preserve">SRR11783571</t>
+    <t xml:space="preserve">deWit_RM1_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8023-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> single experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM1_Remdesivir BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8022-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM1_Remdesivir LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM10_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8040-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM10_Vehicle BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM11_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8012-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nose_swab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM11_Vehicle Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM12_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8039-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM12_Vehicle BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM2_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8013-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM2_Remdesivir Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM3_Remdesivir</t>
   </si>
   <si>
     <t xml:space="preserve">VSP8024-1</t>
   </si>
   <si>
-    <t xml:space="preserve"> single experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783571 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8013-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783573 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8039-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783578 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8012-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783582 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8040-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783589 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783590</t>
+    <t xml:space="preserve">deWit_RM3_Remdesivir BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8031-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM3_Remdesivir Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8030-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rectal_swab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM3_Remdesivir Rectal_swab 20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8011-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM3_Remdesivir RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM4_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8045-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM4_Remdesivir BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8005-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM4_Remdesivir Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM5_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8021-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM5_Remdesivir BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8020-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM5_Remdesivir LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8009-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8037-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8018-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM6_Remdesivir RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8036-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8017-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8003-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle Nose_swab 20200606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8015-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle Rectal_swab 20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8035-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM7_Vehicle RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8041-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8034-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8029-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle Rectal_swab 20200603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8033-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM8_Vehicle RLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8007-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle BAL 20200604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8032-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle LLLL 20200608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP8014-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deWit_RM9_Vehicle Nose_swab 20200606</t>
   </si>
   <si>
     <t xml:space="preserve">VSP8046-1</t>
   </si>
   <si>
-    <t xml:space="preserve">SRR11783590 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8014-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783592 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8032-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783593 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8007-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783594 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8029-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783595 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8033-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783596 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8034-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783598 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8041-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783599 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8015-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783600 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8035-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783601 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8003-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783603 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8017-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783604 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8036-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783605 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8018-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783607 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8037-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783608 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8009-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783610 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8020-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783614 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8021-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783615 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8005-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783618 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8045-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783620 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8030-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783621 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8011-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783622 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8031-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783623 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8022-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783624 Unk 20200929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8023-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR11783625 Unk 20200929</t>
+    <t xml:space="preserve">deWit_RM9_Vehicle RLLL 20200608</t>
   </si>
 </sst>
 </file>
@@ -711,13 +687,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>29.94</v>
+        <v>2.52</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>95.4</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -728,23 +704,23 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>29.96</v>
+        <v>12.02</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
@@ -753,18 +729,18 @@
         <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -777,37 +753,37 @@
         <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>6.55</v>
+        <v>4.04</v>
       </c>
       <c r="H4" t="n">
-        <v>99</v>
+        <v>99.7</v>
       </c>
       <c r="I4" t="n">
-        <v>98.9</v>
+        <v>99.3</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G5" t="n">
         <v>10.96</v>
@@ -819,18 +795,18 @@
         <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -843,60 +819,60 @@
         <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>4.04</v>
+        <v>6.55</v>
       </c>
       <c r="H6" t="n">
-        <v>99.7</v>
+        <v>99</v>
       </c>
       <c r="I6" t="n">
-        <v>99.3</v>
+        <v>98.9</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>23.43</v>
+        <v>29.96</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -909,7 +885,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>30.01</v>
+        <v>29.94</v>
       </c>
       <c r="H8" t="n">
         <v>100</v>
@@ -921,28 +897,28 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>15.75</v>
+        <v>29.97</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
@@ -951,64 +927,64 @@
         <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>30.09</v>
+        <v>7.85</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>99.1</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>29.96</v>
+        <v>30.09</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
@@ -1017,18 +993,18 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1041,40 +1017,40 @@
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>26.52</v>
+        <v>29.98</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I12" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G13" t="n">
-        <v>30.09</v>
+        <v>30.1</v>
       </c>
       <c r="H13" t="n">
         <v>100</v>
@@ -1083,18 +1059,18 @@
         <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1107,7 +1083,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>30.11</v>
+        <v>29.86</v>
       </c>
       <c r="H14" t="n">
         <v>100</v>
@@ -1119,48 +1095,48 @@
         <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>29.98</v>
+        <v>21.99</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I15" t="n">
         <v>99.9</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1173,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>29.84</v>
+        <v>30</v>
       </c>
       <c r="H16" t="n">
         <v>100</v>
@@ -1185,61 +1161,61 @@
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>8.63</v>
+        <v>24.48</v>
       </c>
       <c r="H17" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="I17" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>11.71</v>
+        <v>17.6</v>
       </c>
       <c r="H18" t="n">
         <v>99.9</v>
@@ -1248,18 +1224,18 @@
         <v>99.9</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1284,28 +1260,28 @@
         <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>17.6</v>
+        <v>11.71</v>
       </c>
       <c r="H20" t="n">
         <v>99.9</v>
@@ -1314,15 +1290,15 @@
         <v>99.9</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -1332,22 +1308,22 @@
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>24.48</v>
+        <v>8.63</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="I21" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
@@ -1355,76 +1331,76 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
         <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="H22" t="n">
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>21.99</v>
+        <v>29.84</v>
       </c>
       <c r="H23" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -1437,7 +1413,7 @@
         <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>29.86</v>
+        <v>30.11</v>
       </c>
       <c r="H24" t="n">
         <v>100</v>
@@ -1449,28 +1425,28 @@
         <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>30.1</v>
+        <v>30.09</v>
       </c>
       <c r="H25" t="n">
         <v>100</v>
@@ -1479,84 +1455,84 @@
         <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G26" t="n">
-        <v>29.98</v>
+        <v>29.96</v>
       </c>
       <c r="H26" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>7.85</v>
+        <v>26.52</v>
       </c>
       <c r="H27" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>99.1</v>
+        <v>100</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1581,28 +1557,28 @@
         <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>29.97</v>
+        <v>15.75</v>
       </c>
       <c r="H29" t="n">
         <v>100</v>
@@ -1611,31 +1587,31 @@
         <v>100</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>12.02</v>
+        <v>30.01</v>
       </c>
       <c r="H30" t="n">
         <v>100</v>
@@ -1644,43 +1620,43 @@
         <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>2.52</v>
+        <v>23.43</v>
       </c>
       <c r="H31" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
         <v>96</v>
-      </c>
-      <c r="I31" t="n">
-        <v>95.4</v>
-      </c>
-      <c r="J31" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/representativeSampleSummary_95.xlsx
+++ b/summaries/representativeSampleSummary_95.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -47,262 +47,589 @@
     <t xml:space="preserve">sampleName</t>
   </si>
   <si>
-    <t xml:space="preserve">deWit_RM1_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8023-1</t>
+    <t xml:space="preserve">197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0009-1m</t>
   </si>
   <si>
     <t xml:space="preserve"> single experiment</t>
   </si>
   <si>
-    <t xml:space="preserve">BAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM1_Remdesivir BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8022-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM1_Remdesivir LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM10_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8040-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM10_Vehicle BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM11_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8012-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nose_swab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM11_Vehicle Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM12_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8039-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM12_Vehicle BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM2_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8013-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM2_Remdesivir Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM3_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8024-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM3_Remdesivir BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8031-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM3_Remdesivir Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8030-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rectal_swab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-06-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM3_Remdesivir Rectal_swab 20200603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8011-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RLLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM3_Remdesivir RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM4_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8045-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM4_Remdesivir BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8005-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM4_Remdesivir Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM5_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8021-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM5_Remdesivir BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8020-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM5_Remdesivir LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM6_Remdesivir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8009-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM6_Remdesivir BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8037-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM6_Remdesivir Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8018-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM6_Remdesivir RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8036-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8017-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8003-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8015-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle Rectal_swab 20200603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8035-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM7_Vehicle RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM8_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8041-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM8_Vehicle BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8034-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM8_Vehicle LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8029-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM8_Vehicle Rectal_swab 20200603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8033-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM8_Vehicle RLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM9_Vehicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8007-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM9_Vehicle BAL 20200604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8032-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM9_Vehicle LLLL 20200608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8014-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM9_Vehicle Nose_swab 20200606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP8046-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deWit_RM9_Vehicle RLLL 20200608</t>
+    <t xml:space="preserve">ETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 ETA 20200330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">composite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203 ETA 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209 ETA 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210 ETA 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0013-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211 ETA 20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0186-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE ETA 20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0184-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE NP 20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0185-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211-TCE OP 20200413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213 ETA 20200415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0180-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-TCE NP 20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-TCE OP 20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-TCE OP 20200420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0183-1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223-TCE OP 20200417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227 OP 20200422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 NP 20200422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP-OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 NP-OP 20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 OP 20200422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0189-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saliva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 Saliva 20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0080-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235 NP-OP 20200424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237 NP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237 NP-OP 20200427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237 OP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238 NP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239 NP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239 OP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0046-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240 NP-OP 20200501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0052-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242 ETA 20200504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242 NP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0047-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242 NP-OP 20200501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0045-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242 OP 20200429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247 NP-OP 20200501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0088-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251 ETA 20200506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251 NP-OP 20200504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251 NP-OP 20200506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0100-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 ETA 20200508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0123-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 ETA 20200511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 NP-OP 20200508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0102-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257 NP-OP 20200508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0140-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261 ETA 20200515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0141-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262 NP-OP 20200515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0142-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263 ETA 20200515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0143-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263 NP-OP 20200515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266 NP-OP 20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266 NP-OP 20200522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0176-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269 ETA 20200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0202-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269 ETA 20200612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0166-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269 NP-OP 20200522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0195-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272 ETA 20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0179-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272 NP-OP 20200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0196-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272 NP-OP 20200529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290 NP-OP 20200629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290 NP-OP 20200701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0256-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307 NP-OP 20200717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA-WA1-2020-TCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA-WA1-2020-TCE NP-OP 20200328</t>
   </si>
 </sst>
 </file>
@@ -687,13 +1014,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>2.52</v>
+        <v>29.82</v>
       </c>
       <c r="H2" t="n">
-        <v>96</v>
+        <v>99.8</v>
       </c>
       <c r="I2" t="n">
-        <v>95.4</v>
+        <v>99.8</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -704,109 +1031,109 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>12.02</v>
+        <v>29.84</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>99.4</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>4.04</v>
+        <v>29.85</v>
       </c>
       <c r="H4" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="I4" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="H5" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>29</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -816,19 +1143,19 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>6.55</v>
+        <v>29.9</v>
       </c>
       <c r="H6" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="I6" t="n">
-        <v>98.9</v>
+        <v>99.8</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
         <v>34</v>
@@ -846,22 +1173,22 @@
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>29.96</v>
+        <v>29.8</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
         <v>37</v>
@@ -869,32 +1196,32 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>29.94</v>
+        <v>29.86</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
         <v>40</v>
@@ -902,7 +1229,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -912,112 +1239,112 @@
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>29.97</v>
+        <v>29.88</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
-        <v>7.85</v>
+        <v>29.86</v>
       </c>
       <c r="H10" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="I10" t="n">
-        <v>99.1</v>
+        <v>99.7</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G11" t="n">
-        <v>30.09</v>
+        <v>29.87</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G12" t="n">
-        <v>29.98</v>
+        <v>29.34</v>
       </c>
       <c r="H12" t="n">
         <v>99.9</v>
@@ -1026,208 +1353,208 @@
         <v>99.9</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G13" t="n">
-        <v>30.1</v>
+        <v>29.88</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I13" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G14" t="n">
-        <v>29.86</v>
+        <v>29.96</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I14" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G15" t="n">
-        <v>21.99</v>
+        <v>29.91</v>
       </c>
       <c r="H15" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I15" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>29.82</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I16" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="G17" t="n">
-        <v>24.48</v>
+        <v>29.9</v>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I17" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G18" t="n">
-        <v>17.6</v>
+        <v>29.68</v>
       </c>
       <c r="H18" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I18" t="n">
-        <v>99.9</v>
+        <v>98.8</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -1235,428 +1562,1254 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="n">
+        <v>85100</v>
+      </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="G19" t="n">
-        <v>29.87</v>
+        <v>29.82</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I19" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="n">
+        <v>176000</v>
+      </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="G20" t="n">
-        <v>11.71</v>
+        <v>29.87</v>
       </c>
       <c r="H20" t="n">
         <v>99.9</v>
       </c>
       <c r="I20" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="G21" t="n">
-        <v>8.63</v>
+        <v>24.92</v>
       </c>
       <c r="H21" t="n">
         <v>99.3</v>
       </c>
       <c r="I21" t="n">
-        <v>99</v>
+        <v>98.9</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="G22" t="n">
-        <v>29.98</v>
+        <v>29.97</v>
       </c>
       <c r="H22" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I22" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="G23" t="n">
-        <v>29.84</v>
+        <v>29.92</v>
       </c>
       <c r="H23" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I23" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="G24" t="n">
-        <v>30.11</v>
+        <v>29.89</v>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I24" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="G25" t="n">
-        <v>30.09</v>
+        <v>30.06</v>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I25" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G26" t="n">
-        <v>29.96</v>
+        <v>27.48</v>
       </c>
       <c r="H26" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I26" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27"/>
+      <c r="D27" t="n">
+        <v>364000</v>
+      </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="G27" t="n">
-        <v>26.52</v>
+        <v>29.45</v>
       </c>
       <c r="H27" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I27" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="D28"/>
+      <c r="D28" t="n">
+        <v>1420000</v>
+      </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="G28" t="n">
-        <v>30.09</v>
+        <v>29.31</v>
       </c>
       <c r="H28" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I28" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="K28" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="G29" t="n">
-        <v>15.75</v>
+        <v>29.88</v>
       </c>
       <c r="H29" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I29" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="n">
+        <v>222000</v>
+      </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="G30" t="n">
-        <v>30.01</v>
+        <v>29.89</v>
       </c>
       <c r="H30" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="I30" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="D31"/>
+      <c r="D31" t="n">
+        <v>667</v>
+      </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="H31" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="G31" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="H31" t="n">
-        <v>100</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="H32" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>99</v>
+      </c>
+      <c r="J32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>255500</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H33" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="H34" t="n">
         <v>99.9</v>
       </c>
-      <c r="J31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" t="s">
-        <v>96</v>
+      <c r="I34" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" t="n">
+        <v>30</v>
+      </c>
+      <c r="H35" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I35" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2760000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H36" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I36" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>136</v>
+      </c>
+      <c r="K36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="n">
+        <v>123000</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="H37" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J37" t="s">
+        <v>140</v>
+      </c>
+      <c r="K37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="H38" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="J38" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="n">
+        <v>51800</v>
+      </c>
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="H39" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="H40" t="n">
+        <v>98.1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>95.1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H41" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J41" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="H42" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="J42" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="n">
+        <v>172000</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="H43" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J43" t="s">
+        <v>150</v>
+      </c>
+      <c r="K43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="H44" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>99</v>
+      </c>
+      <c r="J44" t="s">
+        <v>163</v>
+      </c>
+      <c r="K44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="H45" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J45" t="s">
+        <v>167</v>
+      </c>
+      <c r="K45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="n">
+        <v>166000</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H46" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J46" t="s">
+        <v>172</v>
+      </c>
+      <c r="K46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="H47" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J47" t="s">
+        <v>176</v>
+      </c>
+      <c r="K47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="H48" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I48" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>167</v>
+      </c>
+      <c r="K48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="H49" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="n">
+        <v>14500</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="H50" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I50" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J50" t="s">
+        <v>172</v>
+      </c>
+      <c r="K50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="n">
+        <v>14300</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H52" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J52" t="s">
+        <v>190</v>
+      </c>
+      <c r="K52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="H53" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J53" t="s">
+        <v>194</v>
+      </c>
+      <c r="K53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s">
+        <v>198</v>
+      </c>
+      <c r="G54" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>199</v>
+      </c>
+      <c r="K54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="H55" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I55" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J55" t="s">
+        <v>204</v>
+      </c>
+      <c r="K55" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/representativeSampleSummary_95.xlsx
+++ b/summaries/representativeSampleSummary_95.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -272,43 +272,16 @@
     <t xml:space="preserve">235 NP-OP 20200424</t>
   </si>
   <si>
-    <t xml:space="preserve">237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0037</t>
+    <t xml:space="preserve">238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0039</t>
   </si>
   <si>
     <t xml:space="preserve">2020-04-29</t>
   </si>
   <si>
     <t xml:space="preserve">20200429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237 NP 20200429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237 NP-OP 20200427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237 OP 20200429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0039</t>
   </si>
   <si>
     <t xml:space="preserve">238 NP 20200429</t>
@@ -1645,13 +1618,13 @@
         <v>88</v>
       </c>
       <c r="G21" t="n">
-        <v>24.92</v>
+        <v>29.89</v>
       </c>
       <c r="H21" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="I21" t="n">
-        <v>98.9</v>
+        <v>99.8</v>
       </c>
       <c r="J21" t="s">
         <v>89</v>
@@ -1662,23 +1635,23 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G22" t="n">
-        <v>29.97</v>
+        <v>30.06</v>
       </c>
       <c r="H22" t="n">
         <v>99.9</v>
@@ -1687,18 +1660,18 @@
         <v>99.8</v>
       </c>
       <c r="J22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" t="s">
         <v>93</v>
-      </c>
-      <c r="K22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -1711,109 +1684,113 @@
         <v>88</v>
       </c>
       <c r="G23" t="n">
-        <v>29.92</v>
+        <v>27.48</v>
       </c>
       <c r="H23" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I23" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="J23" t="s">
         <v>89</v>
       </c>
       <c r="K23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
         <v>97</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="n">
+        <v>364000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
         <v>98</v>
       </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
       <c r="G24" t="n">
-        <v>29.89</v>
+        <v>29.45</v>
       </c>
       <c r="H24" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I24" t="n">
         <v>99.8</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25"/>
+        <v>13</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1420000</v>
+      </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G25" t="n">
-        <v>30.06</v>
+        <v>29.31</v>
       </c>
       <c r="H25" t="n">
         <v>99.9</v>
       </c>
       <c r="I25" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
         <v>88</v>
       </c>
       <c r="G26" t="n">
-        <v>27.48</v>
+        <v>29.88</v>
       </c>
       <c r="H26" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I26" t="n">
         <v>99.8</v>
@@ -1822,30 +1799,30 @@
         <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>364000</v>
+        <v>222000</v>
       </c>
       <c r="E27" t="s">
         <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G27" t="n">
-        <v>29.45</v>
+        <v>29.89</v>
       </c>
       <c r="H27" t="n">
         <v>99.9</v>
@@ -1854,7 +1831,7 @@
         <v>99.8</v>
       </c>
       <c r="J27" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s">
         <v>109</v>
@@ -1862,145 +1839,143 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="n">
+        <v>667</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="H28" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" t="s">
         <v>111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1420000</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" t="n">
-        <v>29.31</v>
-      </c>
-      <c r="H28" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="I28" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="J28" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G29" t="n">
-        <v>29.88</v>
+        <v>21.42</v>
       </c>
       <c r="H29" t="n">
-        <v>99.9</v>
+        <v>99.2</v>
       </c>
       <c r="I29" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="n">
+        <v>255500</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="n">
-        <v>222000</v>
-      </c>
-      <c r="E30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" t="s">
-        <v>107</v>
-      </c>
       <c r="G30" t="n">
-        <v>29.89</v>
+        <v>29.82</v>
       </c>
       <c r="H30" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I30" t="n">
         <v>99.8</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="n">
-        <v>667</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D31"/>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G31" t="n">
-        <v>29.72</v>
+        <v>29.94</v>
       </c>
       <c r="H31" t="n">
-        <v>99.6</v>
+        <v>99.9</v>
       </c>
       <c r="I31" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
         <v>122</v>
@@ -2013,19 +1988,19 @@
         <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G32" t="n">
-        <v>21.42</v>
+        <v>30</v>
       </c>
       <c r="H32" t="n">
-        <v>99.2</v>
+        <v>99.9</v>
       </c>
       <c r="I32" t="n">
-        <v>99</v>
+        <v>99.7</v>
       </c>
       <c r="J32" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K32" t="s">
         <v>123</v>
@@ -2042,7 +2017,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="n">
-        <v>255500</v>
+        <v>2760000</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -2054,10 +2029,10 @@
         <v>29.82</v>
       </c>
       <c r="H33" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="I33" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J33" t="s">
         <v>127</v>
@@ -2074,17 +2049,19 @@
         <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34"/>
+        <v>13</v>
+      </c>
+      <c r="D34" t="n">
+        <v>123000</v>
+      </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G34" t="n">
-        <v>29.94</v>
+        <v>29.89</v>
       </c>
       <c r="H34" t="n">
         <v>99.9</v>
@@ -2093,10 +2070,10 @@
         <v>99.8</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35">
@@ -2104,7 +2081,7 @@
         <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -2117,51 +2094,51 @@
         <v>126</v>
       </c>
       <c r="G35" t="n">
-        <v>30</v>
+        <v>29.99</v>
       </c>
       <c r="H35" t="n">
         <v>99.9</v>
       </c>
       <c r="I35" t="n">
-        <v>99.7</v>
+        <v>99.9</v>
       </c>
       <c r="J35" t="s">
         <v>127</v>
       </c>
       <c r="K35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="n">
-        <v>2760000</v>
+        <v>51800</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G36" t="n">
-        <v>29.82</v>
+        <v>29.93</v>
       </c>
       <c r="H36" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="I36" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J36" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K36" t="s">
         <v>137</v>
@@ -2169,227 +2146,225 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
-      <c r="D37" t="n">
-        <v>123000</v>
-      </c>
+      <c r="D37"/>
       <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G37" t="n">
-        <v>29.89</v>
+        <v>7.26</v>
       </c>
       <c r="H37" t="n">
-        <v>99.9</v>
+        <v>98.1</v>
       </c>
       <c r="I37" t="n">
-        <v>99.8</v>
+        <v>95.1</v>
       </c>
       <c r="J37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
         <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G38" t="n">
-        <v>29.99</v>
+        <v>29.82</v>
       </c>
       <c r="H38" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I38" t="n">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="J38" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D39" t="n">
-        <v>51800</v>
-      </c>
+      <c r="D39"/>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G39" t="n">
-        <v>29.93</v>
+        <v>29.81</v>
       </c>
       <c r="H39" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="I39" t="n">
-        <v>99.8</v>
+        <v>99.6</v>
       </c>
       <c r="J39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" t="n">
+        <v>172000</v>
+      </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G40" t="n">
-        <v>7.26</v>
+        <v>29.85</v>
       </c>
       <c r="H40" t="n">
-        <v>98.1</v>
+        <v>99.8</v>
       </c>
       <c r="I40" t="n">
-        <v>95.1</v>
+        <v>99.8</v>
       </c>
       <c r="J40" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" t="s">
         <v>150</v>
-      </c>
-      <c r="K40" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
         <v>152</v>
       </c>
-      <c r="B41" t="s">
-        <v>153</v>
-      </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
         <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G41" t="n">
-        <v>29.82</v>
+        <v>22.33</v>
       </c>
       <c r="H41" t="n">
         <v>99.8</v>
       </c>
       <c r="I41" t="n">
-        <v>99.7</v>
+        <v>99</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
         <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G42" t="n">
-        <v>29.81</v>
+        <v>29.75</v>
       </c>
       <c r="H42" t="n">
-        <v>99.7</v>
+        <v>99.9</v>
       </c>
       <c r="I42" t="n">
-        <v>99.6</v>
+        <v>99.8</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="n">
-        <v>172000</v>
+        <v>166000</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G43" t="n">
-        <v>29.85</v>
+        <v>29.82</v>
       </c>
       <c r="H43" t="n">
         <v>99.8</v>
@@ -2398,10 +2373,10 @@
         <v>99.8</v>
       </c>
       <c r="J43" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44">
@@ -2409,32 +2384,34 @@
         <v>160</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44"/>
+        <v>13</v>
+      </c>
+      <c r="D44" t="n">
+        <v>16300</v>
+      </c>
       <c r="E44" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G44" t="n">
-        <v>22.33</v>
+        <v>29.83</v>
       </c>
       <c r="H44" t="n">
         <v>99.8</v>
       </c>
       <c r="I44" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="J44" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45">
@@ -2442,64 +2419,64 @@
         <v>160</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
         <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G45" t="n">
-        <v>29.75</v>
+        <v>29.84</v>
       </c>
       <c r="H45" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I45" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="J45" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="n">
-        <v>166000</v>
+        <v>1530000</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="G46" t="n">
-        <v>29.82</v>
+        <v>25.63</v>
       </c>
       <c r="H46" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="I46" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="J46" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="K46" t="s">
         <v>173</v>
@@ -2507,7 +2484,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
         <v>174</v>
@@ -2516,93 +2493,93 @@
         <v>13</v>
       </c>
       <c r="D47" t="n">
-        <v>16300</v>
+        <v>14500</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="H47" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J47" t="s">
+        <v>163</v>
+      </c>
+      <c r="K47" t="s">
         <v>175</v>
-      </c>
-      <c r="G47" t="n">
-        <v>29.83</v>
-      </c>
-      <c r="H47" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I47" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J47" t="s">
-        <v>176</v>
-      </c>
-      <c r="K47" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
-      <c r="D48"/>
+      <c r="D48" t="n">
+        <v>14300</v>
+      </c>
       <c r="E48" t="s">
         <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="G48" t="n">
-        <v>29.84</v>
+        <v>12.5</v>
       </c>
       <c r="H48" t="n">
-        <v>99.8</v>
+        <v>99.1</v>
       </c>
       <c r="I48" t="n">
-        <v>99.5</v>
+        <v>97.7</v>
       </c>
       <c r="J48" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s">
         <v>180</v>
       </c>
-      <c r="B49" t="s">
+      <c r="G49" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J49" t="s">
         <v>181</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1530000</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" t="n">
-        <v>25.63</v>
-      </c>
-      <c r="H49" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="I49" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="J49" t="s">
-        <v>74</v>
       </c>
       <c r="K49" t="s">
         <v>182</v>
@@ -2610,25 +2587,23 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
         <v>183</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="n">
-        <v>14500</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D50"/>
       <c r="E50" t="s">
         <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G50" t="n">
-        <v>29.41</v>
+        <v>24.18</v>
       </c>
       <c r="H50" t="n">
         <v>99.8</v>
@@ -2637,53 +2612,53 @@
         <v>99.8</v>
       </c>
       <c r="J50" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="D51" t="n">
-        <v>14300</v>
+        <v>313.5</v>
       </c>
       <c r="E51" t="s">
         <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="G51" t="n">
-        <v>12.5</v>
+        <v>22.6</v>
       </c>
       <c r="H51" t="n">
         <v>99.1</v>
       </c>
       <c r="I51" t="n">
-        <v>97.7</v>
+        <v>99.1</v>
       </c>
       <c r="J51" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="K51" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -2693,10 +2668,10 @@
         <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G52" t="n">
-        <v>29.8</v>
+        <v>30.02</v>
       </c>
       <c r="H52" t="n">
         <v>99.8</v>
@@ -2705,111 +2680,10 @@
         <v>99.8</v>
       </c>
       <c r="J52" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" t="s">
-        <v>193</v>
-      </c>
-      <c r="G53" t="n">
-        <v>24.18</v>
-      </c>
-      <c r="H53" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I53" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J53" t="s">
-        <v>194</v>
-      </c>
-      <c r="K53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
         <v>196</v>
-      </c>
-      <c r="B54" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" t="n">
-        <v>313.5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>72</v>
-      </c>
-      <c r="F54" t="s">
-        <v>198</v>
-      </c>
-      <c r="G54" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="H54" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>199</v>
-      </c>
-      <c r="K54" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" t="s">
-        <v>203</v>
-      </c>
-      <c r="G55" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="H55" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I55" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J55" t="s">
-        <v>204</v>
-      </c>
-      <c r="K55" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
